--- a/va_facility_data_2025-02-20/McCurtain County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McCurtain%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/McCurtain County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McCurtain%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R343d3c1d7b7749b9845f3b06f3af3308"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf7c37c2ab94044e8a4df132a10620d47"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1a3a2f21340d4b49aad151a953990a36"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcb9988adf95c4728b8e9b6357bc7f93a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf6909074420947e484016c81ad5ffb6f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re29936c9ee7f47ffa24829639c7da66f"/>
   </x:sheets>
 </x:workbook>
 </file>
